--- a/summary_models.xlsx
+++ b/summary_models.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">constant_no_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-60(se=13.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006(95% CI, 0.0053-0.0068)</t>
+    <t xml:space="preserve">-20.8(se=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017(95% CI, 0.017-0.018)</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">time_no_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-36.7(se=7.4)</t>
+    <t xml:space="preserve">-18.7(se=1.1)</t>
   </si>
   <si>
     <t xml:space="preserve">model2</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">age_no_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-66.5(se=26.9)</t>
+    <t xml:space="preserve">-18.9(se=0.8)</t>
   </si>
   <si>
     <t xml:space="preserve">model3</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">age_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-23.3(se=1.4)</t>
+    <t xml:space="preserve">-19.1(se=0.3)</t>
   </si>
   <si>
     <t xml:space="preserve">model4</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3(95% CI, 0.77-2)</t>
+    <t xml:space="preserve">1.1(95% CI, 0.32-1.9)</t>
   </si>
 </sst>
 </file>

--- a/summary_models.xlsx
+++ b/summary_models.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">constant_no_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-20.8(se=3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017(95% CI, 0.017-0.018)</t>
+    <t xml:space="preserve">-5.3(se=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0011(95% CI, 0.00069-0.0017)</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">time_no_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-18.7(se=1.1)</t>
+    <t xml:space="preserve">-5.5(se=1.5)</t>
   </si>
   <si>
     <t xml:space="preserve">model2</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">age_no_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-18.9(se=0.8)</t>
+    <t xml:space="preserve">-16.5(se=10.8)</t>
   </si>
   <si>
     <t xml:space="preserve">model3</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">age_seroreversion</t>
   </si>
   <si>
-    <t xml:space="preserve">-19.1(se=0.3)</t>
+    <t xml:space="preserve">-19.8(se=14.2)</t>
   </si>
   <si>
     <t xml:space="preserve">model4</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1(95% CI, 0.32-1.9)</t>
+    <t xml:space="preserve">0.015(95% CI, 0.0011-0.067)</t>
   </si>
 </sst>
 </file>
